--- a/functions/templates/Upload New Employee.xlsx
+++ b/functions/templates/Upload New Employee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>ID Number</t>
   </si>
@@ -79,154 +79,151 @@
     <t>Assistant Manager</t>
   </si>
   <si>
+    <t>Pres (President)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>BATANGAS</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>8:00 - 5:00</t>
+  </si>
+  <si>
+    <t>Temporary</t>
+  </si>
+  <si>
+    <t>Associate</t>
+  </si>
+  <si>
+    <t>HR (Human Resource Department)</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>IBAAN</t>
+  </si>
+  <si>
+    <t>ADS</t>
+  </si>
+  <si>
+    <t>8:00 - 5:50</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>Coordinator</t>
+  </si>
+  <si>
     <t>ACC (Accounting Department)</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>BATANGAS</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>8:00 - 5:00</t>
-  </si>
-  <si>
-    <t>Temporary</t>
-  </si>
-  <si>
-    <t>Associate</t>
-  </si>
-  <si>
-    <t>Admin (Administration)</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>IBAAN</t>
-  </si>
-  <si>
-    <t>ADS</t>
-  </si>
-  <si>
-    <t>8:00 - 5:50</t>
-  </si>
-  <si>
-    <t>Permanent</t>
-  </si>
-  <si>
-    <t>Coordinator</t>
+    <t>LIPA MALAPIT</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>Department Manager</t>
+  </si>
+  <si>
+    <t>G-Assist (G-Assist Team)</t>
+  </si>
+  <si>
+    <t>LIPA MALAYO</t>
+  </si>
+  <si>
+    <t>Division Manager</t>
+  </si>
+  <si>
+    <t>QA (Quality Assurance Department)</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>HK Reliever</t>
+  </si>
+  <si>
+    <t>PMD (Production Management Department)</t>
+  </si>
+  <si>
+    <t>PADRE GARCIA</t>
+  </si>
+  <si>
+    <t>Housekeeping</t>
+  </si>
+  <si>
+    <t>MPD (Material Procurement Department)</t>
+  </si>
+  <si>
+    <t>ROSARIO</t>
+  </si>
+  <si>
+    <t>Junior Staff</t>
+  </si>
+  <si>
+    <t>PROD (Production Department)</t>
+  </si>
+  <si>
+    <t>SAN JOSE</t>
+  </si>
+  <si>
+    <t>President</t>
+  </si>
+  <si>
+    <t>PE (Production Engineering Department)</t>
+  </si>
+  <si>
+    <t>SAN LUCAS</t>
+  </si>
+  <si>
+    <t>Section Manager</t>
   </si>
   <si>
     <t>EQD (Equipment Department)</t>
   </si>
   <si>
-    <t>LIPA MALAPIT</t>
-  </si>
-  <si>
-    <t>NS</t>
-  </si>
-  <si>
-    <t>Department Manager</t>
-  </si>
-  <si>
-    <t>G-Assist (G-Assist Team)</t>
-  </si>
-  <si>
-    <t>LIPA MALAYO</t>
-  </si>
-  <si>
-    <t>Division Manager</t>
-  </si>
-  <si>
-    <t>HR (Human Resource Department)</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>HK Reliever</t>
+    <t>SAN PABLO VIA LIPA</t>
+  </si>
+  <si>
+    <t>SPE</t>
   </si>
   <si>
     <t>IT (Information Technology Department)</t>
   </si>
   <si>
-    <t>PADRE GARCIA</t>
-  </si>
-  <si>
-    <t>Housekeeping</t>
-  </si>
-  <si>
-    <t>MPD (Material Procurement Department)</t>
-  </si>
-  <si>
-    <t>ROSARIO</t>
-  </si>
-  <si>
-    <t>Junior Staff</t>
+    <t>SAN PABLO VIA TOMAS</t>
+  </si>
+  <si>
+    <t>Staff</t>
   </si>
   <si>
     <t>NF (NF Kaizen Department)</t>
   </si>
   <si>
-    <t>SAN JOSE</t>
-  </si>
-  <si>
-    <t>President</t>
+    <t>STA. TERESITA</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
   </si>
   <si>
     <t>PDC (Production Design Center)</t>
   </si>
   <si>
-    <t>SAN LUCAS</t>
-  </si>
-  <si>
-    <t>Section Manager</t>
-  </si>
-  <si>
-    <t>PE (Production Engineering Department)</t>
-  </si>
-  <si>
-    <t>SAN PABLO VIA LIPA</t>
-  </si>
-  <si>
-    <t>SPE</t>
-  </si>
-  <si>
-    <t>PMD (Production Management Department)</t>
-  </si>
-  <si>
-    <t>SAN PABLO VIA TOMAS</t>
-  </si>
-  <si>
-    <t>Staff</t>
-  </si>
-  <si>
-    <t>QA (Quality Assurance Department)</t>
-  </si>
-  <si>
-    <t>STA. TERESITA</t>
-  </si>
-  <si>
-    <t>Supervisor</t>
-  </si>
-  <si>
-    <t>SHD (Safety &amp; Health Department)</t>
-  </si>
-  <si>
     <t>STO. TOMAS MALAPIT</t>
   </si>
   <si>
-    <t>PROD (Production Department)</t>
+    <t>ARAGON (Aragon)</t>
   </si>
   <si>
     <t>STO. TOMAS MALAYO</t>
-  </si>
-  <si>
-    <t>ARAGON (Aragon)</t>
   </si>
   <si>
     <t>HK (Housekeeping)</t>
@@ -768,7 +765,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G505"/>
+  <dimension ref="A1:G507"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1075,9 +1072,7 @@
     </row>
     <row r="20" spans="1:7" customHeight="1" ht="15.75">
       <c r="A20" s="3"/>
-      <c r="B20" s="7" t="s">
-        <v>73</v>
-      </c>
+      <c r="B20" s="7"/>
       <c r="C20" s="3"/>
       <c r="D20" s="7"/>
       <c r="E20" s="3"/>
@@ -5448,6 +5443,24 @@
       <c r="E505"/>
       <c r="F505"/>
       <c r="G505"/>
+    </row>
+    <row r="506" spans="1:7">
+      <c r="A506"/>
+      <c r="B506" s="2"/>
+      <c r="C506"/>
+      <c r="D506" s="2"/>
+      <c r="E506"/>
+      <c r="F506"/>
+      <c r="G506"/>
+    </row>
+    <row r="507" spans="1:7">
+      <c r="A507"/>
+      <c r="B507" s="2"/>
+      <c r="C507"/>
+      <c r="D507" s="2"/>
+      <c r="E507"/>
+      <c r="F507"/>
+      <c r="G507"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/functions/templates/Upload New Employee.xlsx
+++ b/functions/templates/Upload New Employee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
   <si>
     <t>ID Number</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>NON-FALP (Non-Falp)</t>
+  </si>
+  <si>
+    <t>SHD (Safety &amp; Health Department)</t>
   </si>
 </sst>
 </file>
@@ -765,7 +768,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G507"/>
+  <dimension ref="A1:G524"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1072,7 +1075,9 @@
     </row>
     <row r="20" spans="1:7" customHeight="1" ht="15.75">
       <c r="A20" s="3"/>
-      <c r="B20" s="7"/>
+      <c r="B20" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="7"/>
       <c r="E20" s="3"/>
@@ -5461,6 +5466,159 @@
       <c r="E507"/>
       <c r="F507"/>
       <c r="G507"/>
+    </row>
+    <row r="508" spans="1:7">
+      <c r="A508"/>
+      <c r="B508" s="2"/>
+      <c r="C508"/>
+      <c r="D508" s="2"/>
+      <c r="E508"/>
+      <c r="F508"/>
+      <c r="G508"/>
+    </row>
+    <row r="509" spans="1:7">
+      <c r="A509"/>
+      <c r="B509" s="2"/>
+      <c r="C509"/>
+      <c r="D509" s="2"/>
+      <c r="E509"/>
+      <c r="F509"/>
+      <c r="G509"/>
+    </row>
+    <row r="510" spans="1:7">
+      <c r="A510"/>
+      <c r="B510" s="2"/>
+      <c r="C510"/>
+      <c r="D510" s="2"/>
+      <c r="E510"/>
+      <c r="F510"/>
+      <c r="G510"/>
+    </row>
+    <row r="511" spans="1:7">
+      <c r="A511"/>
+      <c r="B511" s="2"/>
+      <c r="C511"/>
+      <c r="D511" s="2"/>
+      <c r="E511"/>
+      <c r="F511"/>
+      <c r="G511"/>
+    </row>
+    <row r="512" spans="1:7">
+      <c r="A512"/>
+      <c r="B512" s="2"/>
+      <c r="C512"/>
+      <c r="D512" s="2"/>
+      <c r="E512"/>
+      <c r="F512"/>
+      <c r="G512"/>
+    </row>
+    <row r="513" spans="1:7">
+      <c r="A513"/>
+      <c r="B513" s="2"/>
+      <c r="C513"/>
+      <c r="D513" s="2"/>
+      <c r="E513"/>
+      <c r="F513"/>
+      <c r="G513"/>
+    </row>
+    <row r="514" spans="1:7">
+      <c r="A514"/>
+      <c r="B514" s="2"/>
+      <c r="C514"/>
+      <c r="D514" s="2"/>
+      <c r="E514"/>
+      <c r="F514"/>
+      <c r="G514"/>
+    </row>
+    <row r="515" spans="1:7">
+      <c r="A515"/>
+      <c r="B515" s="2"/>
+      <c r="C515"/>
+      <c r="D515" s="2"/>
+      <c r="E515"/>
+      <c r="F515"/>
+      <c r="G515"/>
+    </row>
+    <row r="516" spans="1:7">
+      <c r="A516"/>
+      <c r="B516" s="2"/>
+      <c r="C516"/>
+      <c r="D516" s="2"/>
+      <c r="E516"/>
+      <c r="F516"/>
+      <c r="G516"/>
+    </row>
+    <row r="517" spans="1:7">
+      <c r="A517"/>
+      <c r="B517" s="2"/>
+      <c r="C517"/>
+      <c r="D517" s="2"/>
+      <c r="E517"/>
+      <c r="F517"/>
+      <c r="G517"/>
+    </row>
+    <row r="518" spans="1:7">
+      <c r="A518"/>
+      <c r="B518" s="2"/>
+      <c r="C518"/>
+      <c r="D518" s="2"/>
+      <c r="E518"/>
+      <c r="F518"/>
+      <c r="G518"/>
+    </row>
+    <row r="519" spans="1:7">
+      <c r="A519"/>
+      <c r="B519" s="2"/>
+      <c r="C519"/>
+      <c r="D519" s="2"/>
+      <c r="E519"/>
+      <c r="F519"/>
+      <c r="G519"/>
+    </row>
+    <row r="520" spans="1:7">
+      <c r="A520"/>
+      <c r="B520" s="2"/>
+      <c r="C520"/>
+      <c r="D520" s="2"/>
+      <c r="E520"/>
+      <c r="F520"/>
+      <c r="G520"/>
+    </row>
+    <row r="521" spans="1:7">
+      <c r="A521"/>
+      <c r="B521" s="2"/>
+      <c r="C521"/>
+      <c r="D521" s="2"/>
+      <c r="E521"/>
+      <c r="F521"/>
+      <c r="G521"/>
+    </row>
+    <row r="522" spans="1:7">
+      <c r="A522"/>
+      <c r="B522" s="2"/>
+      <c r="C522"/>
+      <c r="D522" s="2"/>
+      <c r="E522"/>
+      <c r="F522"/>
+      <c r="G522"/>
+    </row>
+    <row r="523" spans="1:7">
+      <c r="A523"/>
+      <c r="B523" s="2"/>
+      <c r="C523"/>
+      <c r="D523" s="2"/>
+      <c r="E523"/>
+      <c r="F523"/>
+      <c r="G523"/>
+    </row>
+    <row r="524" spans="1:7">
+      <c r="A524"/>
+      <c r="B524" s="2"/>
+      <c r="C524"/>
+      <c r="D524" s="2"/>
+      <c r="E524"/>
+      <c r="F524"/>
+      <c r="G524"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/functions/templates/Upload New Employee.xlsx
+++ b/functions/templates/Upload New Employee.xlsx
@@ -768,7 +768,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G524"/>
+  <dimension ref="A1:G548"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -5619,6 +5619,222 @@
       <c r="E524"/>
       <c r="F524"/>
       <c r="G524"/>
+    </row>
+    <row r="525" spans="1:7">
+      <c r="A525"/>
+      <c r="B525" s="2"/>
+      <c r="C525"/>
+      <c r="D525" s="2"/>
+      <c r="E525"/>
+      <c r="F525"/>
+      <c r="G525"/>
+    </row>
+    <row r="526" spans="1:7">
+      <c r="A526"/>
+      <c r="B526" s="2"/>
+      <c r="C526"/>
+      <c r="D526" s="2"/>
+      <c r="E526"/>
+      <c r="F526"/>
+      <c r="G526"/>
+    </row>
+    <row r="527" spans="1:7">
+      <c r="A527"/>
+      <c r="B527" s="2"/>
+      <c r="C527"/>
+      <c r="D527" s="2"/>
+      <c r="E527"/>
+      <c r="F527"/>
+      <c r="G527"/>
+    </row>
+    <row r="528" spans="1:7">
+      <c r="A528"/>
+      <c r="B528" s="2"/>
+      <c r="C528"/>
+      <c r="D528" s="2"/>
+      <c r="E528"/>
+      <c r="F528"/>
+      <c r="G528"/>
+    </row>
+    <row r="529" spans="1:7">
+      <c r="A529"/>
+      <c r="B529" s="2"/>
+      <c r="C529"/>
+      <c r="D529" s="2"/>
+      <c r="E529"/>
+      <c r="F529"/>
+      <c r="G529"/>
+    </row>
+    <row r="530" spans="1:7">
+      <c r="A530"/>
+      <c r="B530" s="2"/>
+      <c r="C530"/>
+      <c r="D530" s="2"/>
+      <c r="E530"/>
+      <c r="F530"/>
+      <c r="G530"/>
+    </row>
+    <row r="531" spans="1:7">
+      <c r="A531"/>
+      <c r="B531" s="2"/>
+      <c r="C531"/>
+      <c r="D531" s="2"/>
+      <c r="E531"/>
+      <c r="F531"/>
+      <c r="G531"/>
+    </row>
+    <row r="532" spans="1:7">
+      <c r="A532"/>
+      <c r="B532" s="2"/>
+      <c r="C532"/>
+      <c r="D532" s="2"/>
+      <c r="E532"/>
+      <c r="F532"/>
+      <c r="G532"/>
+    </row>
+    <row r="533" spans="1:7">
+      <c r="A533"/>
+      <c r="B533" s="2"/>
+      <c r="C533"/>
+      <c r="D533" s="2"/>
+      <c r="E533"/>
+      <c r="F533"/>
+      <c r="G533"/>
+    </row>
+    <row r="534" spans="1:7">
+      <c r="A534"/>
+      <c r="B534" s="2"/>
+      <c r="C534"/>
+      <c r="D534" s="2"/>
+      <c r="E534"/>
+      <c r="F534"/>
+      <c r="G534"/>
+    </row>
+    <row r="535" spans="1:7">
+      <c r="A535"/>
+      <c r="B535" s="2"/>
+      <c r="C535"/>
+      <c r="D535" s="2"/>
+      <c r="E535"/>
+      <c r="F535"/>
+      <c r="G535"/>
+    </row>
+    <row r="536" spans="1:7">
+      <c r="A536"/>
+      <c r="B536" s="2"/>
+      <c r="C536"/>
+      <c r="D536" s="2"/>
+      <c r="E536"/>
+      <c r="F536"/>
+      <c r="G536"/>
+    </row>
+    <row r="537" spans="1:7">
+      <c r="A537"/>
+      <c r="B537" s="2"/>
+      <c r="C537"/>
+      <c r="D537" s="2"/>
+      <c r="E537"/>
+      <c r="F537"/>
+      <c r="G537"/>
+    </row>
+    <row r="538" spans="1:7">
+      <c r="A538"/>
+      <c r="B538" s="2"/>
+      <c r="C538"/>
+      <c r="D538" s="2"/>
+      <c r="E538"/>
+      <c r="F538"/>
+      <c r="G538"/>
+    </row>
+    <row r="539" spans="1:7">
+      <c r="A539"/>
+      <c r="B539" s="2"/>
+      <c r="C539"/>
+      <c r="D539" s="2"/>
+      <c r="E539"/>
+      <c r="F539"/>
+      <c r="G539"/>
+    </row>
+    <row r="540" spans="1:7">
+      <c r="A540"/>
+      <c r="B540" s="2"/>
+      <c r="C540"/>
+      <c r="D540" s="2"/>
+      <c r="E540"/>
+      <c r="F540"/>
+      <c r="G540"/>
+    </row>
+    <row r="541" spans="1:7">
+      <c r="A541"/>
+      <c r="B541" s="2"/>
+      <c r="C541"/>
+      <c r="D541" s="2"/>
+      <c r="E541"/>
+      <c r="F541"/>
+      <c r="G541"/>
+    </row>
+    <row r="542" spans="1:7">
+      <c r="A542"/>
+      <c r="B542" s="2"/>
+      <c r="C542"/>
+      <c r="D542" s="2"/>
+      <c r="E542"/>
+      <c r="F542"/>
+      <c r="G542"/>
+    </row>
+    <row r="543" spans="1:7">
+      <c r="A543"/>
+      <c r="B543" s="2"/>
+      <c r="C543"/>
+      <c r="D543" s="2"/>
+      <c r="E543"/>
+      <c r="F543"/>
+      <c r="G543"/>
+    </row>
+    <row r="544" spans="1:7">
+      <c r="A544"/>
+      <c r="B544" s="2"/>
+      <c r="C544"/>
+      <c r="D544" s="2"/>
+      <c r="E544"/>
+      <c r="F544"/>
+      <c r="G544"/>
+    </row>
+    <row r="545" spans="1:7">
+      <c r="A545"/>
+      <c r="B545" s="2"/>
+      <c r="C545"/>
+      <c r="D545" s="2"/>
+      <c r="E545"/>
+      <c r="F545"/>
+      <c r="G545"/>
+    </row>
+    <row r="546" spans="1:7">
+      <c r="A546"/>
+      <c r="B546" s="2"/>
+      <c r="C546"/>
+      <c r="D546" s="2"/>
+      <c r="E546"/>
+      <c r="F546"/>
+      <c r="G546"/>
+    </row>
+    <row r="547" spans="1:7">
+      <c r="A547"/>
+      <c r="B547" s="2"/>
+      <c r="C547"/>
+      <c r="D547" s="2"/>
+      <c r="E547"/>
+      <c r="F547"/>
+      <c r="G547"/>
+    </row>
+    <row r="548" spans="1:7">
+      <c r="A548"/>
+      <c r="B548" s="2"/>
+      <c r="C548"/>
+      <c r="D548" s="2"/>
+      <c r="E548"/>
+      <c r="F548"/>
+      <c r="G548"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/functions/templates/Upload New Employee.xlsx
+++ b/functions/templates/Upload New Employee.xlsx
@@ -768,7 +768,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G548"/>
+  <dimension ref="A1:G550"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -5835,6 +5835,24 @@
       <c r="E548"/>
       <c r="F548"/>
       <c r="G548"/>
+    </row>
+    <row r="549" spans="1:7">
+      <c r="A549"/>
+      <c r="B549" s="2"/>
+      <c r="C549"/>
+      <c r="D549" s="2"/>
+      <c r="E549"/>
+      <c r="F549"/>
+      <c r="G549"/>
+    </row>
+    <row r="550" spans="1:7">
+      <c r="A550"/>
+      <c r="B550" s="2"/>
+      <c r="C550"/>
+      <c r="D550" s="2"/>
+      <c r="E550"/>
+      <c r="F550"/>
+      <c r="G550"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/functions/templates/Upload New Employee.xlsx
+++ b/functions/templates/Upload New Employee.xlsx
@@ -768,7 +768,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G550"/>
+  <dimension ref="A1:G554"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -5853,6 +5853,42 @@
       <c r="E550"/>
       <c r="F550"/>
       <c r="G550"/>
+    </row>
+    <row r="551" spans="1:7">
+      <c r="A551"/>
+      <c r="B551" s="2"/>
+      <c r="C551"/>
+      <c r="D551" s="2"/>
+      <c r="E551"/>
+      <c r="F551"/>
+      <c r="G551"/>
+    </row>
+    <row r="552" spans="1:7">
+      <c r="A552"/>
+      <c r="B552" s="2"/>
+      <c r="C552"/>
+      <c r="D552" s="2"/>
+      <c r="E552"/>
+      <c r="F552"/>
+      <c r="G552"/>
+    </row>
+    <row r="553" spans="1:7">
+      <c r="A553"/>
+      <c r="B553" s="2"/>
+      <c r="C553"/>
+      <c r="D553" s="2"/>
+      <c r="E553"/>
+      <c r="F553"/>
+      <c r="G553"/>
+    </row>
+    <row r="554" spans="1:7">
+      <c r="A554"/>
+      <c r="B554" s="2"/>
+      <c r="C554"/>
+      <c r="D554" s="2"/>
+      <c r="E554"/>
+      <c r="F554"/>
+      <c r="G554"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/functions/templates/Upload New Employee.xlsx
+++ b/functions/templates/Upload New Employee.xlsx
@@ -768,7 +768,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G554"/>
+  <dimension ref="A1:G557"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -5889,6 +5889,33 @@
       <c r="E554"/>
       <c r="F554"/>
       <c r="G554"/>
+    </row>
+    <row r="555" spans="1:7">
+      <c r="A555"/>
+      <c r="B555" s="2"/>
+      <c r="C555"/>
+      <c r="D555" s="2"/>
+      <c r="E555"/>
+      <c r="F555"/>
+      <c r="G555"/>
+    </row>
+    <row r="556" spans="1:7">
+      <c r="A556"/>
+      <c r="B556" s="2"/>
+      <c r="C556"/>
+      <c r="D556" s="2"/>
+      <c r="E556"/>
+      <c r="F556"/>
+      <c r="G556"/>
+    </row>
+    <row r="557" spans="1:7">
+      <c r="A557"/>
+      <c r="B557" s="2"/>
+      <c r="C557"/>
+      <c r="D557" s="2"/>
+      <c r="E557"/>
+      <c r="F557"/>
+      <c r="G557"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
